--- a/Output/Cuadros/1. OOSS/cuadro4.xlsx
+++ b/Output/Cuadros/1. OOSS/cuadro4.xlsx
@@ -1,21 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Cuadros\1. OOSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_35889FC48F79A8D366075C52F37BD272EAC016E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34CA7EEE-A58E-4A51-998D-09C208E066AB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Rama.Actividad.Económica</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Actividades  no  especiftcadas</t>
+  </si>
+  <si>
+    <t>Agricultura  y  pesca</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Electricidad,  gas  y  agua</t>
+  </si>
+  <si>
+    <t>Establecimientos  ftnancieros</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Transporte  y  comunicaciones</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +162,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,25 +193,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +296,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +348,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,1160 +541,1098 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="2" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Rama.Actividad.Económica</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Actividades  no  especiftcadas</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
         <v>1806</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>3044</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>3420</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2865</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2134</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>14707</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>20392</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>13042</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>14285</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>13070</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>12417</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>34166</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>21703</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>16772</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="2">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>4168</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
         <v>5969</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="2">
         <v>7997</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="2">
         <v>16019</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="2">
         <v>23955</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="2">
         <v>33177</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="2">
         <v>39916</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="2">
         <v>84491</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Agricultura  y  pesca</t>
-        </is>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
         <v>55501</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>70859</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>70492</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>63065</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>60308</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>62365</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
         <v>56474</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>58803</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>55712</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>65281</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>66447</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>60874</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>70205</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>72110</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>70677</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>64216</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>66157</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>65541</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>69252</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="2">
         <v>69713</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="2">
         <v>64470</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
         <v>64781</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <v>63794</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="2">
         <v>64097</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="2">
         <v>65601</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="2">
         <v>72956</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="2">
         <v>74970</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="2">
         <v>68028</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Comercio</t>
-        </is>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
         <v>77574</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>94292</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>100143</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>99012</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>96433</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>95381</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>93595</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>93949</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>87717</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>90632</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>92236</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>91970</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>104841</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>111326</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>113116</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>126935</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>128808</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>156615</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>169434</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>191577</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>208261</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <v>225811</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>238355</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="2">
         <v>247130</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="2">
         <v>262556</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="2">
         <v>264772</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="2">
         <v>266080</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="2">
         <v>258423</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Construcción</t>
-        </is>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
         <v>33179</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>50662</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>53720</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>44056</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>36127</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>40310</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
         <v>41102</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>43296</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>46160</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>36336</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>54198</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>54453</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>58250</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>58463</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>55478</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>60158</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>55163</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>75676</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>71210</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="2">
         <v>66685</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <v>61902</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>58783</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>41604</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <v>55820</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="2">
         <v>48868</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="2">
         <v>85692</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="2">
         <v>82042</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="2">
         <v>54656</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Electricidad,  gas  y  agua</t>
-        </is>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
         <v>16942</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>16685</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>15885</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>16549</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>16249</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>14711</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>14041</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>13830</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>11197</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>12083</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>10470</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>9908</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>10490</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>9484</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>8777</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>8591</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <v>7449</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <v>9342</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>9650</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="2">
         <v>10445</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="2">
         <v>11478</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2">
         <v>11592</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <v>11725</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="2">
         <v>12623</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="2">
         <v>12840</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="2">
         <v>13149</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="2">
         <v>14395</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="2">
         <v>19644</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Establecimientos  ftnancieros</t>
-        </is>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
         <v>29508</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>32429</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>34416</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>33765</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>33839</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>34533</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>30179</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>29546</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>28564</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>28692</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>32118</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>32631</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>36857</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>35139</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>33003</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>35992</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>41332</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>59208</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>60419</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="2">
         <v>37223</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="2">
         <v>87612</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
         <v>93421</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <v>95466</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="2">
         <v>91955</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="2">
         <v>100080</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="2">
         <v>114412</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="2">
         <v>114661</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="2">
         <v>57970</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Industria</t>
-        </is>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
         <v>166078</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>179192</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>185366</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>181018</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>175945</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>153581</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>146427</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>139202</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>122656</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>114292</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>105575</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>103916</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>112686</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>108920</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>119359</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>112709</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <v>118571</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
         <v>118336</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>125189</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
         <v>114515</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="2">
         <v>113414</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="2">
         <v>117548</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <v>120755</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="2">
         <v>122676</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="2">
         <v>129090</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="2">
         <v>129828</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="2">
         <v>134760</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="2">
         <v>128895</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Minería</t>
-        </is>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
         <v>64210</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>64867</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>62262</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>55360</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>50787</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>43753</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
         <v>39738</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>37232</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>34185</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>34584</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>34090</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>33110</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>36942</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>34774</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>37471</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>44608</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <v>39215</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <v>39910</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>43382</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="2">
         <v>44236</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="2">
         <v>45273</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="2">
         <v>52221</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="2">
         <v>51298</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="2">
         <v>54320</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="2">
         <v>53618</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="2">
         <v>54556</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="2">
         <v>60556</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="2">
         <v>62898</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Servicios</t>
-        </is>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
         <v>74552</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>87689</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>92592</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>89268</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>89009</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>85762</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
         <v>85199</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>86984</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>86496</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>103826</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>107226</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>105628</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>117779</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <v>134020</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <v>136144</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <v>140366</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="2">
         <v>151624</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="2">
         <v>144641</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="2">
         <v>152864</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="2">
         <v>187786</v>
       </c>
-      <c r="X10">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2">
         <v>162590</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <v>163243</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="2">
         <v>176300</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="2">
         <v>201498</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="2">
         <v>214910</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="2">
         <v>233718</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="2">
         <v>286521</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
         <v>606812</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>701355</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>724075</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>684361</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>661966</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>637570</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
         <v>617761</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>611535</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>579996</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>595495</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>599610</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>618930</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>669507</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <v>680351</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>676368</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>703706</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <v>724606</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <v>801251</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>837055</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
         <v>858571</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="2">
         <v>892301</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="2">
         <v>940603</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="2">
         <v>940222</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="2">
         <v>985770</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="2">
         <v>1048234</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="2">
         <v>1139955</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="2">
         <v>1179445</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="2">
         <v>1174346</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Transporte  y  comunicaciones</t>
-        </is>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2">
         <v>87462</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>101636</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>105779</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>99403</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>101135</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>92467</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <v>90614</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>95651</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>93024</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>96699</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <v>84833</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>92274</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <v>99754</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <v>99343</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="2">
         <v>102343</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>110131</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="2">
         <v>116287</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="2">
         <v>131982</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="2">
         <v>135655</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="2">
         <v>136391</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="2">
         <v>144644</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="2">
         <v>147887</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="2">
         <v>145985</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="2">
         <v>144830</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="2">
         <v>150128</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="2">
         <v>156503</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="2">
         <v>158347</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="2">
         <v>152820</v>
       </c>
     </row>
